--- a/src/test/resources/testData/applicationTestData_280923.xlsx
+++ b/src/test/resources/testData/applicationTestData_280923.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b7192f114fb507c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CB999A7-08DC-4CA3-8A6F-BFA7FE4F97FC}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75345F7-0043-43C1-8036-8D50C2C4453E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{0F6E352F-E34F-478D-A787-F3401148C54F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Firstname</t>
   </si>
@@ -104,28 +104,22 @@
     <t>test12345</t>
   </si>
   <si>
-    <t>Ayesha</t>
-  </si>
-  <si>
-    <t>Yusuf</t>
-  </si>
-  <si>
-    <t>test1@gmail.com</t>
-  </si>
-  <si>
-    <t>test2@gmail.com</t>
-  </si>
-  <si>
-    <t>test3@gmail.com</t>
-  </si>
-  <si>
-    <t>test4@gmail.com</t>
-  </si>
-  <si>
-    <t>test5@gmail.com</t>
-  </si>
-  <si>
     <t>hello123</t>
+  </si>
+  <si>
+    <t>test6@gmail.com</t>
+  </si>
+  <si>
+    <t>test7@gmail.com</t>
+  </si>
+  <si>
+    <t>test8@gmail.com</t>
+  </si>
+  <si>
+    <t>test9@gmail.com</t>
+  </si>
+  <si>
+    <t>test10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -229,6 +223,10 @@
 </file>
 
 <file path=xl/persons/person16.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person17.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -564,7 +562,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,19 +596,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -618,19 +616,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -638,19 +636,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -658,19 +656,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -678,19 +676,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>

--- a/src/test/resources/testData/applicationTestData_280923.xlsx
+++ b/src/test/resources/testData/applicationTestData_280923.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b7192f114fb507c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75345F7-0043-43C1-8036-8D50C2C4453E}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3123ACFC-1143-407D-BD7E-5A28E70B1BFB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{0F6E352F-E34F-478D-A787-F3401148C54F}"/>
   </bookViews>
@@ -107,19 +107,19 @@
     <t>hello123</t>
   </si>
   <si>
-    <t>test6@gmail.com</t>
-  </si>
-  <si>
-    <t>test7@gmail.com</t>
-  </si>
-  <si>
-    <t>test8@gmail.com</t>
-  </si>
-  <si>
-    <t>test9@gmail.com</t>
-  </si>
-  <si>
-    <t>test10@gmail.com</t>
+    <t>test11@gmail.com</t>
+  </si>
+  <si>
+    <t>test12@gmail.com</t>
+  </si>
+  <si>
+    <t>test13@gmail.com</t>
+  </si>
+  <si>
+    <t>test14@gmail.com</t>
+  </si>
+  <si>
+    <t>test15@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -227,6 +227,10 @@
 </file>
 
 <file path=xl/persons/person17.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person18.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -562,7 +566,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874359A6-A39C-430D-86C0-6912F5069E00}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -756,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860300F0-52F0-4C29-AFA2-AA5C54A31C2A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testData/applicationTestData_280923.xlsx
+++ b/src/test/resources/testData/applicationTestData_280923.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b7192f114fb507c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3123ACFC-1143-407D-BD7E-5A28E70B1BFB}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7B054C1-9823-45A0-90AA-F5050D0A39EA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{0F6E352F-E34F-478D-A787-F3401148C54F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="2" xr2:uid="{0F6E352F-E34F-478D-A787-F3401148C54F}"/>
   </bookViews>
   <sheets>
     <sheet name="registrationData" sheetId="3" r:id="rId1"/>
@@ -107,19 +107,19 @@
     <t>hello123</t>
   </si>
   <si>
-    <t>test11@gmail.com</t>
-  </si>
-  <si>
-    <t>test12@gmail.com</t>
-  </si>
-  <si>
-    <t>test13@gmail.com</t>
-  </si>
-  <si>
-    <t>test14@gmail.com</t>
-  </si>
-  <si>
-    <t>test15@gmail.com</t>
+    <t>test16@gmail.com</t>
+  </si>
+  <si>
+    <t>test17@gmail.com</t>
+  </si>
+  <si>
+    <t>test18@gmail.com</t>
+  </si>
+  <si>
+    <t>test19@gmail.com</t>
+  </si>
+  <si>
+    <t>test20@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -231,6 +231,10 @@
 </file>
 
 <file path=xl/persons/person18.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person19.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -565,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFBF8A3-717D-43C4-BAE2-688E6932A39A}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860300F0-52F0-4C29-AFA2-AA5C54A31C2A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testData/applicationTestData_280923.xlsx
+++ b/src/test/resources/testData/applicationTestData_280923.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b7192f114fb507c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7B054C1-9823-45A0-90AA-F5050D0A39EA}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1959E2C-4D58-4020-A21D-32E524707848}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="2" xr2:uid="{0F6E352F-E34F-478D-A787-F3401148C54F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{0F6E352F-E34F-478D-A787-F3401148C54F}"/>
   </bookViews>
   <sheets>
     <sheet name="registrationData" sheetId="3" r:id="rId1"/>
@@ -107,19 +107,19 @@
     <t>hello123</t>
   </si>
   <si>
-    <t>test16@gmail.com</t>
-  </si>
-  <si>
-    <t>test17@gmail.com</t>
-  </si>
-  <si>
-    <t>test18@gmail.com</t>
-  </si>
-  <si>
-    <t>test19@gmail.com</t>
-  </si>
-  <si>
-    <t>test20@gmail.com</t>
+    <t>test21@gmail.com</t>
+  </si>
+  <si>
+    <t>test22@gmail.com</t>
+  </si>
+  <si>
+    <t>test23@gmail.com</t>
+  </si>
+  <si>
+    <t>test24@gmail.com</t>
+  </si>
+  <si>
+    <t>test25@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -239,6 +239,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person20.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -569,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFBF8A3-717D-43C4-BAE2-688E6932A39A}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860300F0-52F0-4C29-AFA2-AA5C54A31C2A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testData/applicationTestData_280923.xlsx
+++ b/src/test/resources/testData/applicationTestData_280923.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b7192f114fb507c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1959E2C-4D58-4020-A21D-32E524707848}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{697951CE-E36C-4273-BDCB-B638E211B88E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{0F6E352F-E34F-478D-A787-F3401148C54F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Firstname</t>
   </si>
@@ -107,19 +107,16 @@
     <t>hello123</t>
   </si>
   <si>
-    <t>test21@gmail.com</t>
-  </si>
-  <si>
-    <t>test22@gmail.com</t>
-  </si>
-  <si>
-    <t>test23@gmail.com</t>
-  </si>
-  <si>
-    <t>test24@gmail.com</t>
-  </si>
-  <si>
-    <t>test25@gmail.com</t>
+    <t>test26@gmail.com</t>
+  </si>
+  <si>
+    <t>test27@gmail.com</t>
+  </si>
+  <si>
+    <t>test28@gmail.com</t>
+  </si>
+  <si>
+    <t>test29@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -243,6 +240,10 @@
 </file>
 
 <file path=xl/persons/person20.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person21.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -574,7 +575,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -674,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -694,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>

--- a/src/test/resources/testData/applicationTestData_280923.xlsx
+++ b/src/test/resources/testData/applicationTestData_280923.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b7192f114fb507c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{697951CE-E36C-4273-BDCB-B638E211B88E}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{3C4F5923-F686-4394-9A91-2BFD61A8D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11235F08-66C5-471E-89FE-E63D1F7D35F8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{0F6E352F-E34F-478D-A787-F3401148C54F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="2" xr2:uid="{0F6E352F-E34F-478D-A787-F3401148C54F}"/>
   </bookViews>
   <sheets>
     <sheet name="registrationData" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Firstname</t>
   </si>
@@ -107,16 +107,19 @@
     <t>hello123</t>
   </si>
   <si>
-    <t>test26@gmail.com</t>
-  </si>
-  <si>
-    <t>test27@gmail.com</t>
-  </si>
-  <si>
-    <t>test28@gmail.com</t>
-  </si>
-  <si>
-    <t>test29@gmail.com</t>
+    <t>test30@gmail.com</t>
+  </si>
+  <si>
+    <t>test31@gmail.com</t>
+  </si>
+  <si>
+    <t>test32@gmail.com</t>
+  </si>
+  <si>
+    <t>test33@gmail.com</t>
+  </si>
+  <si>
+    <t>test34@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -244,6 +247,10 @@
 </file>
 
 <file path=xl/persons/person21.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person22.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -574,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFBF8A3-717D-43C4-BAE2-688E6932A39A}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -675,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -695,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -724,7 +731,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860300F0-52F0-4C29-AFA2-AA5C54A31C2A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,64 +801,64 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
+      <c r="A2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
+      <c r="A4" t="s">
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
+      <c r="A5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{C5045BA7-B3D2-4D59-9AC8-80D0BFF710C8}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{93BAAD66-B842-4EB0-BB2C-E6C4EF0DDF18}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C5045BA7-B3D2-4D59-9AC8-80D0BFF710C8}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{93BAAD66-B842-4EB0-BB2C-E6C4EF0DDF18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
